--- a/stocks_cultures_dna/primers_DNA.xlsx
+++ b/stocks_cultures_dna/primers_DNA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/lab_protocols/stocks_cultures_dna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C0CE04A-F3F8-AC44-AE27-AA6A580EA212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3440821A-6FFB-2643-91F7-CCD00495C7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28380" windowHeight="17440" activeTab="1" xr2:uid="{8B90D846-3A5E-3D4B-A0DD-CD8AA31427F2}"/>
+    <workbookView xWindow="4820" yWindow="0" windowWidth="23980" windowHeight="17440" xr2:uid="{8B90D846-3A5E-3D4B-A0DD-CD8AA31427F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Primers" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="61">
   <si>
     <t>Freezer Box</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>GCCAGAATGTCCCAGCTGAA</t>
-  </si>
-  <si>
-    <t>Tm degress C</t>
   </si>
   <si>
     <t>AGAGTTTGATCMTGGCTCAG</t>
@@ -213,9 +210,6 @@
     <t>insert of first 2001 bp of pvdL flanked by 800 bp flanking sequences, made with help from Heather Feaga</t>
   </si>
   <si>
-    <t>Fridge/Freezer</t>
-  </si>
-  <si>
     <t>Box</t>
   </si>
   <si>
@@ -244,13 +238,48 @@
   </si>
   <si>
     <t>IDT</t>
+  </si>
+  <si>
+    <t>Fridge/Freezer (C)</t>
+  </si>
+  <si>
+    <t>AGTTTGGAGTCGTCACTCGAT</t>
+  </si>
+  <si>
+    <t>GACCAGACCTTGGGTTTCCT</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (°C)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -318,10 +347,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -359,20 +403,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -396,6 +432,21 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,308 +783,372 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B97CC6C-AE89-7A40-A0C1-727AC55E7A77}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="13">
+        <v>57.1</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="13">
+        <v>57.7</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="5">
-        <v>57.1</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D12" s="19">
+        <v>53.5</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="5">
-        <v>57.7</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="F12" s="13"/>
+      <c r="G12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="19">
+        <v>54.5</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1">
-        <v>53.5</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="1">
-        <v>54.5</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>31</v>
+      <c r="F13" s="13"/>
+      <c r="G13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="18" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="C14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="3">
+        <v>58</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="20">
+        <v>45804</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="16">
+      <c r="B15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="3">
+        <v>58</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="20">
         <v>45804</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="16">
-        <v>45804</v>
-      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G16" s="16"/>
+      <c r="G16" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A521AB4E-D4C9-6840-A630-F6068D0361D2}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1043,174 +1158,293 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="4">
+        <v>45772</v>
+      </c>
+      <c r="D2" s="3">
+        <v>54.8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="3">
+        <v>-20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="4">
+        <v>45790</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-20</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="11">
+        <v>45804</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="C4" s="11">
+        <v>45804</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-20</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="I4" s="11">
+        <v>45804</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="8">
-        <v>45772</v>
-      </c>
-      <c r="D2" s="7">
-        <v>54.8</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="7">
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="11">
+        <v>45804</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="3">
         <v>-20</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="8">
-        <v>45790</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="7">
-        <v>-20</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="15">
+      <c r="H5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="11">
         <v>45804</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="15">
-        <v>45804</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="7">
-        <v>-20</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="15">
-        <v>45804</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="15">
-        <v>45804</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="7">
-        <v>-20</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="15">
-        <v>45804</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="7"/>
+      <c r="J5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9">
+        <v>4</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stocks_cultures_dna/primers_DNA.xlsx
+++ b/stocks_cultures_dna/primers_DNA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/lab_protocols/stocks_cultures_dna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3440821A-6FFB-2643-91F7-CCD00495C7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1264081-8CD0-EA4D-9BDC-CEAC5F0692A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4820" yWindow="0" windowWidth="23980" windowHeight="17440" xr2:uid="{8B90D846-3A5E-3D4B-A0DD-CD8AA31427F2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="61">
   <si>
     <t>Freezer Box</t>
   </si>
@@ -97,12 +97,6 @@
   </si>
   <si>
     <t>Pseudomonas gyrB</t>
-  </si>
-  <si>
-    <t>1x Date</t>
-  </si>
-  <si>
-    <t>1x</t>
   </si>
   <si>
     <t>Resus. Date</t>
@@ -273,6 +267,12 @@
       </rPr>
       <t xml:space="preserve"> (°C)</t>
     </r>
+  </si>
+  <si>
+    <t>10 uM</t>
+  </si>
+  <si>
+    <t>10 uM Date</t>
   </si>
 </sst>
 </file>
@@ -784,7 +784,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -796,38 +796,38 @@
     <col min="5" max="5" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -848,13 +848,17 @@
       <c r="E2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="G2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="I2" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -873,13 +877,17 @@
       <c r="E3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="G3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="I3" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -894,11 +902,11 @@
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -913,11 +921,11 @@
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -932,11 +940,11 @@
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -951,11 +959,11 @@
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -970,11 +978,11 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -989,11 +997,11 @@
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1008,11 +1016,11 @@
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1027,11 +1035,11 @@
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1052,11 +1060,11 @@
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1077,65 +1085,74 @@
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>52</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" s="3">
         <v>58</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G14" s="20">
         <v>45804</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
+      <c r="H14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="20">
+        <v>45831</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>53</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" s="3">
         <v>58</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G15" s="20">
         <v>45804</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="H15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="20">
+        <v>45831</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G16" s="12"/>
+      <c r="I16" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -1168,45 +1185,45 @@
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="F1" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4">
         <v>45772</v>
@@ -1215,115 +1232,115 @@
         <v>54.8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G2" s="3">
         <v>-20</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I2" s="4">
         <v>45790</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G3" s="3">
         <v>-20</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I3" s="11">
         <v>45804</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="11">
         <v>45804</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4" s="3">
         <v>-20</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I4" s="11">
         <v>45804</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="11">
         <v>45804</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G5" s="3">
         <v>-20</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I5" s="11">
         <v>45804</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K5" s="3"/>
     </row>
@@ -1338,7 +1355,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1355,7 +1372,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1372,7 +1389,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -1389,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1406,7 +1423,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1423,7 +1440,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1440,7 +1457,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>

--- a/stocks_cultures_dna/primers_DNA.xlsx
+++ b/stocks_cultures_dna/primers_DNA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/lab_protocols/stocks_cultures_dna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1264081-8CD0-EA4D-9BDC-CEAC5F0692A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89410880-8FC2-9C4F-B69A-D484BD4C0450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4820" yWindow="0" windowWidth="23980" windowHeight="17440" xr2:uid="{8B90D846-3A5E-3D4B-A0DD-CD8AA31427F2}"/>
   </bookViews>
@@ -784,7 +784,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/stocks_cultures_dna/primers_DNA.xlsx
+++ b/stocks_cultures_dna/primers_DNA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/lab_protocols/stocks_cultures_dna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89410880-8FC2-9C4F-B69A-D484BD4C0450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA01233-85C5-3649-885A-FE1422C77CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4820" yWindow="0" windowWidth="23980" windowHeight="17440" xr2:uid="{8B90D846-3A5E-3D4B-A0DD-CD8AA31427F2}"/>
   </bookViews>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B97CC6C-AE89-7A40-A0C1-727AC55E7A77}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
